--- a/MakeBarCode.xlsx
+++ b/MakeBarCode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Masayuki Imaizumi\Jupyter\Code39BarCodeMaker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sync\GitHub_Jupyter\JupyterPython_Code39BarCodeMaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94102EDA-CC01-4EE2-B8F9-34D0A5145750}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90838C0B-D4C8-4BF1-A36B-862D2ACCC5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="26600" windowHeight="18460" xr2:uid="{EB5AF881-DD39-4B18-BF15-DF198063C86F}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="27645" windowHeight="16440" xr2:uid="{EB5AF881-DD39-4B18-BF15-DF198063C86F}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2622" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2551" uniqueCount="363">
   <si>
     <t>品番</t>
     <rPh sb="0" eb="2">
@@ -1121,6 +1121,22 @@
   </si>
   <si>
     <t>SKU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A1508PAC725</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A1501KSW006</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A1506PBG609</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1629,13 +1645,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F26F743C-EDD7-4816-ADD7-2CD2969C7FEF}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1672,522 +1688,80 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>15</v>
+        <v>359</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>281</v>
+        <v>360</v>
+      </c>
+      <c r="D2" s="7">
+        <v>10000</v>
       </c>
       <c r="E2" s="8" t="str">
         <f>A2&amp;"-"&amp;B2&amp;REPT(" ",2-LEN(B2))&amp;"-"&amp;C2</f>
-        <v>A2201FA 053-9 -02</v>
+        <v>A1508PAC725-9 -01</v>
       </c>
       <c r="F2" s="9" t="str">
-        <f t="shared" ref="F2:F21" si="0">A2</f>
-        <v>A2201FA 053</v>
+        <f t="shared" ref="F2:F4" si="0">A2</f>
+        <v>A1508PAC725</v>
       </c>
       <c r="G2" s="10" t="str">
-        <f t="shared" ref="G2:G21" si="1">B2&amp;REPT(" ",2-LEN(B2))&amp;C2&amp;TEXT(D2,"0000000")</f>
-        <v>9 020045000</v>
+        <f t="shared" ref="G2:G4" si="1">B2&amp;REPT(" ",2-LEN(B2))&amp;C2&amp;TEXT(D2,"0000000")</f>
+        <v>9 010010000</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>281</v>
+        <v>361</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D3" s="13">
+        <v>20000</v>
       </c>
       <c r="E3" s="8" t="str">
-        <f t="shared" ref="E3:E21" si="2">A3&amp;"-"&amp;B3&amp;REPT(" ",2-LEN(B3))&amp;"-"&amp;C3</f>
-        <v>A2201FA 053-9 -01</v>
+        <f t="shared" ref="E3:E4" si="2">A3&amp;"-"&amp;B3&amp;REPT(" ",2-LEN(B3))&amp;"-"&amp;C3</f>
+        <v>A1501KSW006-9 -01</v>
       </c>
       <c r="F3" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>A2201FA 053</v>
+        <v>A1501KSW006</v>
       </c>
       <c r="G3" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>9 010045000</v>
+        <v>9 010020000</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>281</v>
+        <v>362</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D4" s="13">
+        <v>50000</v>
       </c>
       <c r="E4" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>A2201FA 053-9 -03</v>
+        <v>A1506PBG609-9 -01</v>
       </c>
       <c r="F4" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>A2201FA 053</v>
+        <v>A1506PBG609</v>
       </c>
       <c r="G4" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>9 030045000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="E5" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>A2201FA 100-3 -01</v>
-      </c>
-      <c r="F5" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>A2201FA 100</v>
-      </c>
-      <c r="G5" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>3 010048000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="E6" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>A2201FA 100-3 -02</v>
-      </c>
-      <c r="F6" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>A2201FA 100</v>
-      </c>
-      <c r="G6" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>3 020048000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="E7" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>A2201FA 100-4 -01</v>
-      </c>
-      <c r="F7" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>A2201FA 100</v>
-      </c>
-      <c r="G7" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>4 010048000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="E8" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>A2201FA 100-4 -02</v>
-      </c>
-      <c r="F8" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>A2201FA 100</v>
-      </c>
-      <c r="G8" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>4 020048000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="E9" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>A2201FA 103-9 -01</v>
-      </c>
-      <c r="F9" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>A2201FA 103</v>
-      </c>
-      <c r="G9" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>9 010052000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="E10" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>A2201FA 103-9 -03</v>
-      </c>
-      <c r="F10" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>A2201FA 103</v>
-      </c>
-      <c r="G10" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>9 030052000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="E11" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>A2201FA 204-3 -01</v>
-      </c>
-      <c r="F11" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>A2201FA 204</v>
-      </c>
-      <c r="G11" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>3 010052000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="E12" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>A2201FA 204-4 -02</v>
-      </c>
-      <c r="F12" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>A2201FA 204</v>
-      </c>
-      <c r="G12" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>4 020052000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="E13" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>A2201FA 204-4 -03</v>
-      </c>
-      <c r="F13" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>A2201FA 204</v>
-      </c>
-      <c r="G13" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>4 030052000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="E14" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>A2201FA 204-4 -04</v>
-      </c>
-      <c r="F14" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>A2201FA 204</v>
-      </c>
-      <c r="G14" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>4 040052000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="E15" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>A2201FA 221-3 -01</v>
-      </c>
-      <c r="F15" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>A2201FA 221</v>
-      </c>
-      <c r="G15" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>3 010039000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="E16" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>A2201FA 221-4 -02</v>
-      </c>
-      <c r="F16" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>A2201FA 221</v>
-      </c>
-      <c r="G16" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>4 020039000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="E17" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>A2201FA 253-4 -01</v>
-      </c>
-      <c r="F17" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>A2201FA 253</v>
-      </c>
-      <c r="G17" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>4 010045000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="E18" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>A2201FA 253-3 -02</v>
-      </c>
-      <c r="F18" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>A2201FA 253</v>
-      </c>
-      <c r="G18" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>3 020045000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="E19" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>A2201FA 253-3 -01</v>
-      </c>
-      <c r="F19" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>A2201FA 253</v>
-      </c>
-      <c r="G19" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>3 010045000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="E20" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>A2201FA 303-9 -01</v>
-      </c>
-      <c r="F20" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>A2201FA 303</v>
-      </c>
-      <c r="G20" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>9 010063000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="E21" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>A2201FA 303-9 -02</v>
-      </c>
-      <c r="F21" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>A2201FA 303</v>
-      </c>
-      <c r="G21" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>9 020063000</v>
+        <v>9 010050000</v>
       </c>
     </row>
   </sheetData>
